--- a/natmiOut/OldD4/LR-pairs_lrc2p/Col4a1-Cd93.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Col4a1-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>225.785832210144</v>
+        <v>301.48083</v>
       </c>
       <c r="H2">
-        <v>225.785832210144</v>
+        <v>904.44249</v>
       </c>
       <c r="I2">
-        <v>0.5318881183946984</v>
+        <v>0.5977744084099033</v>
       </c>
       <c r="J2">
-        <v>0.5318881183946984</v>
+        <v>0.6507315779475966</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>169.690907399947</v>
+        <v>196.8487906666667</v>
       </c>
       <c r="N2">
-        <v>169.690907399947</v>
+        <v>590.546372</v>
       </c>
       <c r="O2">
-        <v>0.5547945231140841</v>
+        <v>0.5898085209504824</v>
       </c>
       <c r="P2">
-        <v>0.5547945231140841</v>
+        <v>0.5923834015035012</v>
       </c>
       <c r="Q2">
-        <v>38313.80274579152</v>
+        <v>59346.13679468293</v>
       </c>
       <c r="R2">
-        <v>38313.80274579152</v>
+        <v>534115.2311521464</v>
       </c>
       <c r="S2">
-        <v>0.2950886149948342</v>
+        <v>0.3525724396862946</v>
       </c>
       <c r="T2">
-        <v>0.2950886149948342</v>
+        <v>0.385482585610338</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>225.785832210144</v>
+        <v>301.48083</v>
       </c>
       <c r="H3">
-        <v>225.785832210144</v>
+        <v>904.44249</v>
       </c>
       <c r="I3">
-        <v>0.5318881183946984</v>
+        <v>0.5977744084099033</v>
       </c>
       <c r="J3">
-        <v>0.5318881183946984</v>
+        <v>0.6507315779475966</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>54.6034433841246</v>
+        <v>0.2899643333333333</v>
       </c>
       <c r="N3">
-        <v>54.6034433841246</v>
+        <v>0.869893</v>
       </c>
       <c r="O3">
-        <v>0.1785227729455335</v>
+        <v>0.0008688061226717315</v>
       </c>
       <c r="P3">
-        <v>0.1785227729455335</v>
+        <v>0.0008725990010553907</v>
       </c>
       <c r="Q3">
-        <v>12328.68390602406</v>
+        <v>87.41868788373</v>
       </c>
       <c r="R3">
-        <v>12328.68390602406</v>
+        <v>786.7681909535701</v>
       </c>
       <c r="S3">
-        <v>0.09495414179260381</v>
+        <v>0.0005193500660029961</v>
       </c>
       <c r="T3">
-        <v>0.09495414179260381</v>
+        <v>0.000567827724872271</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>225.785832210144</v>
+        <v>301.48083</v>
       </c>
       <c r="H4">
-        <v>225.785832210144</v>
+        <v>904.44249</v>
       </c>
       <c r="I4">
-        <v>0.5318881183946984</v>
+        <v>0.5977744084099033</v>
       </c>
       <c r="J4">
-        <v>0.5318881183946984</v>
+        <v>0.6507315779475966</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>77.3133188485382</v>
+        <v>54.63182799999999</v>
       </c>
       <c r="N4">
-        <v>77.3133188485382</v>
+        <v>163.895484</v>
       </c>
       <c r="O4">
-        <v>0.2527713860345311</v>
+        <v>0.1636907067621498</v>
       </c>
       <c r="P4">
-        <v>0.2527713860345311</v>
+        <v>0.1644053183735123</v>
       </c>
       <c r="Q4">
-        <v>17456.25203714541</v>
+        <v>16470.44884985724</v>
       </c>
       <c r="R4">
-        <v>17456.25203714541</v>
+        <v>148234.0396487151</v>
       </c>
       <c r="S4">
-        <v>0.1344460969019267</v>
+        <v>0.09785011539694305</v>
       </c>
       <c r="T4">
-        <v>0.1344460969019267</v>
+        <v>0.1069837322481727</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>225.785832210144</v>
+        <v>301.48083</v>
       </c>
       <c r="H5">
-        <v>225.785832210144</v>
+        <v>904.44249</v>
       </c>
       <c r="I5">
-        <v>0.5318881183946984</v>
+        <v>0.5977744084099033</v>
       </c>
       <c r="J5">
-        <v>0.5318881183946984</v>
+        <v>0.6507315779475966</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.25495216737674</v>
+        <v>77.62766766666668</v>
       </c>
       <c r="N5">
-        <v>4.25495216737674</v>
+        <v>232.883003</v>
       </c>
       <c r="O5">
-        <v>0.01391131790585118</v>
+        <v>0.2325920301377057</v>
       </c>
       <c r="P5">
-        <v>0.01391131790585118</v>
+        <v>0.233607438823602</v>
       </c>
       <c r="Q5">
-        <v>960.7079161255133</v>
+        <v>23403.25367911084</v>
       </c>
       <c r="R5">
-        <v>960.7079161255133</v>
+        <v>210629.2831119975</v>
       </c>
       <c r="S5">
-        <v>0.00739926470533366</v>
+        <v>0.1390375632164254</v>
       </c>
       <c r="T5">
-        <v>0.00739926470533366</v>
+        <v>0.1520157372859792</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>74.5595654969602</v>
+        <v>301.48083</v>
       </c>
       <c r="H6">
-        <v>74.5595654969602</v>
+        <v>904.44249</v>
       </c>
       <c r="I6">
-        <v>0.175641432468599</v>
+        <v>0.5977744084099033</v>
       </c>
       <c r="J6">
-        <v>0.175641432468599</v>
+        <v>0.6507315779475966</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>169.690907399947</v>
+        <v>4.352083</v>
       </c>
       <c r="N6">
-        <v>169.690907399947</v>
+        <v>8.704166000000001</v>
       </c>
       <c r="O6">
-        <v>0.5547945231140841</v>
+        <v>0.0130399360269903</v>
       </c>
       <c r="P6">
-        <v>0.5547945231140841</v>
+        <v>0.008731242298328987</v>
       </c>
       <c r="Q6">
-        <v>12652.08032452496</v>
+        <v>1312.06959506889</v>
       </c>
       <c r="R6">
-        <v>12652.08032452496</v>
+        <v>7872.41757041334</v>
       </c>
       <c r="S6">
-        <v>0.09744490476549099</v>
+        <v>0.007794940044237111</v>
       </c>
       <c r="T6">
-        <v>0.09744490476549099</v>
+        <v>0.005681695078234422</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>74.5595654969602</v>
+        <v>78.40049233333333</v>
       </c>
       <c r="H7">
-        <v>74.5595654969602</v>
+        <v>235.201477</v>
       </c>
       <c r="I7">
-        <v>0.175641432468599</v>
+        <v>0.1554520329654243</v>
       </c>
       <c r="J7">
-        <v>0.175641432468599</v>
+        <v>0.1692236156041445</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.6034433841246</v>
+        <v>196.8487906666667</v>
       </c>
       <c r="N7">
-        <v>54.6034433841246</v>
+        <v>590.546372</v>
       </c>
       <c r="O7">
-        <v>0.1785227729455335</v>
+        <v>0.5898085209504824</v>
       </c>
       <c r="P7">
-        <v>0.1785227729455335</v>
+        <v>0.5923834015035012</v>
       </c>
       <c r="Q7">
-        <v>4071.209013358196</v>
+        <v>15433.04210348794</v>
       </c>
       <c r="R7">
-        <v>4071.209013358196</v>
+        <v>138897.3789313914</v>
       </c>
       <c r="S7">
-        <v>0.03135599556841996</v>
+        <v>0.09168693364208257</v>
       </c>
       <c r="T7">
-        <v>0.03135599556841996</v>
+        <v>0.1002452610263041</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>74.5595654969602</v>
+        <v>78.40049233333333</v>
       </c>
       <c r="H8">
-        <v>74.5595654969602</v>
+        <v>235.201477</v>
       </c>
       <c r="I8">
-        <v>0.175641432468599</v>
+        <v>0.1554520329654243</v>
       </c>
       <c r="J8">
-        <v>0.175641432468599</v>
+        <v>0.1692236156041445</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>77.3133188485382</v>
+        <v>0.2899643333333333</v>
       </c>
       <c r="N8">
-        <v>77.3133188485382</v>
+        <v>0.869893</v>
       </c>
       <c r="O8">
-        <v>0.2527713860345311</v>
+        <v>0.0008688061226717315</v>
       </c>
       <c r="P8">
-        <v>0.2527713860345311</v>
+        <v>0.0008725990010553907</v>
       </c>
       <c r="Q8">
-        <v>5764.447460474952</v>
+        <v>22.73334649244011</v>
       </c>
       <c r="R8">
-        <v>5764.447460474952</v>
+        <v>204.600118431961</v>
       </c>
       <c r="S8">
-        <v>0.04439712833017827</v>
+        <v>0.0001350576780221285</v>
       </c>
       <c r="T8">
-        <v>0.04439712833017827</v>
+        <v>0.000147664357931158</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>74.5595654969602</v>
+        <v>78.40049233333333</v>
       </c>
       <c r="H9">
-        <v>74.5595654969602</v>
+        <v>235.201477</v>
       </c>
       <c r="I9">
-        <v>0.175641432468599</v>
+        <v>0.1554520329654243</v>
       </c>
       <c r="J9">
-        <v>0.175641432468599</v>
+        <v>0.1692236156041445</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.25495216737674</v>
+        <v>54.63182799999999</v>
       </c>
       <c r="N9">
-        <v>4.25495216737674</v>
+        <v>163.895484</v>
       </c>
       <c r="O9">
-        <v>0.01391131790585118</v>
+        <v>0.1636907067621498</v>
       </c>
       <c r="P9">
-        <v>0.01391131790585118</v>
+        <v>0.1644053183735123</v>
       </c>
       <c r="Q9">
-        <v>317.2473848099588</v>
+        <v>4283.162212269985</v>
       </c>
       <c r="R9">
-        <v>317.2473848099588</v>
+        <v>38548.45991042986</v>
       </c>
       <c r="S9">
-        <v>0.002443403804509772</v>
+        <v>0.02544605314372332</v>
       </c>
       <c r="T9">
-        <v>0.002443403804509772</v>
+        <v>0.02782126239971625</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.490570943846033</v>
+        <v>78.40049233333333</v>
       </c>
       <c r="H10">
-        <v>0.490570943846033</v>
+        <v>235.201477</v>
       </c>
       <c r="I10">
-        <v>0.001155647605109807</v>
+        <v>0.1554520329654243</v>
       </c>
       <c r="J10">
-        <v>0.001155647605109807</v>
+        <v>0.1692236156041445</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.690907399947</v>
+        <v>77.62766766666668</v>
       </c>
       <c r="N10">
-        <v>169.690907399947</v>
+        <v>232.883003</v>
       </c>
       <c r="O10">
-        <v>0.5547945231140841</v>
+        <v>0.2325920301377057</v>
       </c>
       <c r="P10">
-        <v>0.5547945231140841</v>
+        <v>0.233607438823602</v>
       </c>
       <c r="Q10">
-        <v>83.24542860528179</v>
+        <v>6086.047363755049</v>
       </c>
       <c r="R10">
-        <v>83.24542860528179</v>
+        <v>54774.42627379543</v>
       </c>
       <c r="S10">
-        <v>0.000641146961964829</v>
+        <v>0.03615690393646161</v>
       </c>
       <c r="T10">
-        <v>0.000641146961964829</v>
+        <v>0.03953189542975393</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.490570943846033</v>
+        <v>78.40049233333333</v>
       </c>
       <c r="H11">
-        <v>0.490570943846033</v>
+        <v>235.201477</v>
       </c>
       <c r="I11">
-        <v>0.001155647605109807</v>
+        <v>0.1554520329654243</v>
       </c>
       <c r="J11">
-        <v>0.001155647605109807</v>
+        <v>0.1692236156041445</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.6034433841246</v>
+        <v>4.352083</v>
       </c>
       <c r="N11">
-        <v>54.6034433841246</v>
+        <v>8.704166000000001</v>
       </c>
       <c r="O11">
-        <v>0.1785227729455335</v>
+        <v>0.0130399360269903</v>
       </c>
       <c r="P11">
-        <v>0.1785227729455335</v>
+        <v>0.008731242298328987</v>
       </c>
       <c r="Q11">
-        <v>26.78686275819343</v>
+        <v>341.2054498755303</v>
       </c>
       <c r="R11">
-        <v>26.78686275819343</v>
+        <v>2047.232699253182</v>
       </c>
       <c r="S11">
-        <v>0.0002063094150120677</v>
+        <v>0.00202708456513472</v>
       </c>
       <c r="T11">
-        <v>0.0002063094150120677</v>
+        <v>0.001477532390439072</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.490570943846033</v>
+        <v>0.6553806666666667</v>
       </c>
       <c r="H12">
-        <v>0.490570943846033</v>
+        <v>1.966142</v>
       </c>
       <c r="I12">
-        <v>0.001155647605109807</v>
+        <v>0.001299484913518232</v>
       </c>
       <c r="J12">
-        <v>0.001155647605109807</v>
+        <v>0.001414607009594434</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>77.3133188485382</v>
+        <v>196.8487906666667</v>
       </c>
       <c r="N12">
-        <v>77.3133188485382</v>
+        <v>590.546372</v>
       </c>
       <c r="O12">
-        <v>0.2527713860345311</v>
+        <v>0.5898085209504824</v>
       </c>
       <c r="P12">
-        <v>0.2527713860345311</v>
+        <v>0.5923834015035012</v>
       </c>
       <c r="Q12">
-        <v>37.92766779939668</v>
+        <v>129.0108916596471</v>
       </c>
       <c r="R12">
-        <v>37.92766779939668</v>
+        <v>1161.098024936824</v>
       </c>
       <c r="S12">
-        <v>0.0002921146469110925</v>
+        <v>0.0007664472748396537</v>
       </c>
       <c r="T12">
-        <v>0.0002921146469110925</v>
+        <v>0.0008379897121342467</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.490570943846033</v>
+        <v>0.6553806666666667</v>
       </c>
       <c r="H13">
-        <v>0.490570943846033</v>
+        <v>1.966142</v>
       </c>
       <c r="I13">
-        <v>0.001155647605109807</v>
+        <v>0.001299484913518232</v>
       </c>
       <c r="J13">
-        <v>0.001155647605109807</v>
+        <v>0.001414607009594434</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>4.25495216737674</v>
+        <v>0.2899643333333333</v>
       </c>
       <c r="N13">
-        <v>4.25495216737674</v>
+        <v>0.869893</v>
       </c>
       <c r="O13">
-        <v>0.01391131790585118</v>
+        <v>0.0008688061226717315</v>
       </c>
       <c r="P13">
-        <v>0.01391131790585118</v>
+        <v>0.0008725990010553907</v>
       </c>
       <c r="Q13">
-        <v>2.087355900769731</v>
+        <v>0.1900370180895556</v>
       </c>
       <c r="R13">
-        <v>2.087355900769731</v>
+        <v>1.710333162806</v>
       </c>
       <c r="S13">
-        <v>1.607658122181809E-05</v>
+        <v>1.129000449184185E-06</v>
       </c>
       <c r="T13">
-        <v>1.607658122181809E-05</v>
+        <v>1.234384663458057E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.562244389433187</v>
+        <v>0.6553806666666667</v>
       </c>
       <c r="H14">
-        <v>0.562244389433187</v>
+        <v>1.966142</v>
       </c>
       <c r="I14">
-        <v>0.001324490148235963</v>
+        <v>0.001299484913518232</v>
       </c>
       <c r="J14">
-        <v>0.001324490148235963</v>
+        <v>0.001414607009594434</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>169.690907399947</v>
+        <v>54.63182799999999</v>
       </c>
       <c r="N14">
-        <v>169.690907399947</v>
+        <v>163.895484</v>
       </c>
       <c r="O14">
-        <v>0.5547945231140841</v>
+        <v>0.1636907067621498</v>
       </c>
       <c r="P14">
-        <v>0.5547945231140841</v>
+        <v>0.1644053183735123</v>
       </c>
       <c r="Q14">
-        <v>95.40776062344668</v>
+        <v>35.80464385585866</v>
       </c>
       <c r="R14">
-        <v>95.40776062344668</v>
+        <v>322.241794702728</v>
       </c>
       <c r="S14">
-        <v>0.0007348198801598734</v>
+        <v>0.0002127136039205505</v>
       </c>
       <c r="T14">
-        <v>0.0007348198801598734</v>
+        <v>0.0002325689157857751</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.562244389433187</v>
+        <v>0.6553806666666667</v>
       </c>
       <c r="H15">
-        <v>0.562244389433187</v>
+        <v>1.966142</v>
       </c>
       <c r="I15">
-        <v>0.001324490148235963</v>
+        <v>0.001299484913518232</v>
       </c>
       <c r="J15">
-        <v>0.001324490148235963</v>
+        <v>0.001414607009594434</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>54.6034433841246</v>
+        <v>77.62766766666668</v>
       </c>
       <c r="N15">
-        <v>54.6034433841246</v>
+        <v>232.883003</v>
       </c>
       <c r="O15">
-        <v>0.1785227729455335</v>
+        <v>0.2325920301377057</v>
       </c>
       <c r="P15">
-        <v>0.1785227729455335</v>
+        <v>0.233607438823602</v>
       </c>
       <c r="Q15">
-        <v>30.70047968645673</v>
+        <v>50.87567258715846</v>
       </c>
       <c r="R15">
-        <v>30.70047968645673</v>
+        <v>457.8810532844261</v>
       </c>
       <c r="S15">
-        <v>0.0002364516540021249</v>
+        <v>0.0003022498341685264</v>
       </c>
       <c r="T15">
-        <v>0.0002364516540021249</v>
+        <v>0.0003304627204532702</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.562244389433187</v>
+        <v>0.6553806666666667</v>
       </c>
       <c r="H16">
-        <v>0.562244389433187</v>
+        <v>1.966142</v>
       </c>
       <c r="I16">
-        <v>0.001324490148235963</v>
+        <v>0.001299484913518232</v>
       </c>
       <c r="J16">
-        <v>0.001324490148235963</v>
+        <v>0.001414607009594434</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>77.3133188485382</v>
+        <v>4.352083</v>
       </c>
       <c r="N16">
-        <v>77.3133188485382</v>
+        <v>8.704166000000001</v>
       </c>
       <c r="O16">
-        <v>0.2527713860345311</v>
+        <v>0.0130399360269903</v>
       </c>
       <c r="P16">
-        <v>0.2527713860345311</v>
+        <v>0.008731242298328987</v>
       </c>
       <c r="Q16">
-        <v>43.46897975104967</v>
+        <v>2.852271057928667</v>
       </c>
       <c r="R16">
-        <v>43.46897975104967</v>
+        <v>17.113626347572</v>
       </c>
       <c r="S16">
-        <v>0.0003347932105586859</v>
+        <v>1.694520014031676E-05</v>
       </c>
       <c r="T16">
-        <v>0.0003347932105586859</v>
+        <v>1.23512765576836E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.562244389433187</v>
+        <v>0.6713516666666667</v>
       </c>
       <c r="H17">
-        <v>0.562244389433187</v>
+        <v>2.014055</v>
       </c>
       <c r="I17">
-        <v>0.001324490148235963</v>
+        <v>0.001331152117952804</v>
       </c>
       <c r="J17">
-        <v>0.001324490148235963</v>
+        <v>0.001449079629400479</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.25495216737674</v>
+        <v>196.8487906666667</v>
       </c>
       <c r="N17">
-        <v>4.25495216737674</v>
+        <v>590.546372</v>
       </c>
       <c r="O17">
-        <v>0.01391131790585118</v>
+        <v>0.5898085209504824</v>
       </c>
       <c r="P17">
-        <v>0.01391131790585118</v>
+        <v>0.5923834015035012</v>
       </c>
       <c r="Q17">
-        <v>2.392322983414151</v>
+        <v>132.1547636953844</v>
       </c>
       <c r="R17">
-        <v>2.392322983414151</v>
+        <v>1189.39287325846</v>
       </c>
       <c r="S17">
-        <v>1.842540351527843E-05</v>
+        <v>0.0007851248618498454</v>
       </c>
       <c r="T17">
-        <v>1.842540351527843E-05</v>
+        <v>0.0008584107199136889</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>123.100519684823</v>
+        <v>0.6713516666666667</v>
       </c>
       <c r="H18">
-        <v>123.100519684823</v>
+        <v>2.014055</v>
       </c>
       <c r="I18">
-        <v>0.2899903113833569</v>
+        <v>0.001331152117952804</v>
       </c>
       <c r="J18">
-        <v>0.2899903113833569</v>
+        <v>0.001449079629400479</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>169.690907399947</v>
+        <v>0.2899643333333333</v>
       </c>
       <c r="N18">
-        <v>169.690907399947</v>
+        <v>0.869893</v>
       </c>
       <c r="O18">
-        <v>0.5547945231140841</v>
+        <v>0.0008688061226717315</v>
       </c>
       <c r="P18">
-        <v>0.5547945231140841</v>
+        <v>0.0008725990010553907</v>
       </c>
       <c r="Q18">
-        <v>20889.03888672265</v>
+        <v>0.1946680384572222</v>
       </c>
       <c r="R18">
-        <v>20889.03888672265</v>
+        <v>1.752012346115</v>
       </c>
       <c r="S18">
-        <v>0.1608850365116342</v>
+        <v>1.156513110284839E-06</v>
       </c>
       <c r="T18">
-        <v>0.1608850365116342</v>
+        <v>1.264465437064574E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,57 +1588,57 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>123.100519684823</v>
+        <v>0.6713516666666667</v>
       </c>
       <c r="H19">
-        <v>123.100519684823</v>
+        <v>2.014055</v>
       </c>
       <c r="I19">
-        <v>0.2899903113833569</v>
+        <v>0.001331152117952804</v>
       </c>
       <c r="J19">
-        <v>0.2899903113833569</v>
+        <v>0.001449079629400479</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>54.6034433841246</v>
+        <v>54.63182799999999</v>
       </c>
       <c r="N19">
-        <v>54.6034433841246</v>
+        <v>163.895484</v>
       </c>
       <c r="O19">
-        <v>0.1785227729455335</v>
+        <v>0.1636907067621498</v>
       </c>
       <c r="P19">
-        <v>0.1785227729455335</v>
+        <v>0.1644053183735123</v>
       </c>
       <c r="Q19">
-        <v>6721.712257166549</v>
+        <v>36.67716878084666</v>
       </c>
       <c r="R19">
-        <v>6721.712257166549</v>
+        <v>330.0945190276199</v>
       </c>
       <c r="S19">
-        <v>0.05176987451549559</v>
+        <v>0.0002178972309956271</v>
       </c>
       <c r="T19">
-        <v>0.05176987451549559</v>
+        <v>0.000238236397820157</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>123.100519684823</v>
+        <v>0.6713516666666667</v>
       </c>
       <c r="H20">
-        <v>123.100519684823</v>
+        <v>2.014055</v>
       </c>
       <c r="I20">
-        <v>0.2899903113833569</v>
+        <v>0.001331152117952804</v>
       </c>
       <c r="J20">
-        <v>0.2899903113833569</v>
+        <v>0.001449079629400479</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>77.3133188485382</v>
+        <v>77.62766766666668</v>
       </c>
       <c r="N20">
-        <v>77.3133188485382</v>
+        <v>232.883003</v>
       </c>
       <c r="O20">
-        <v>0.2527713860345311</v>
+        <v>0.2325920301377057</v>
       </c>
       <c r="P20">
-        <v>0.2527713860345311</v>
+        <v>0.233607438823602</v>
       </c>
       <c r="Q20">
-        <v>9517.309728813474</v>
+        <v>52.11546406746279</v>
       </c>
       <c r="R20">
-        <v>9517.309728813474</v>
+        <v>469.039176607165</v>
       </c>
       <c r="S20">
-        <v>0.0733012529449564</v>
+        <v>0.0003096153735367494</v>
       </c>
       <c r="T20">
-        <v>0.0733012529449564</v>
+        <v>0.0003385157808757003</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>123.100519684823</v>
+        <v>0.6713516666666667</v>
       </c>
       <c r="H21">
-        <v>123.100519684823</v>
+        <v>2.014055</v>
       </c>
       <c r="I21">
-        <v>0.2899903113833569</v>
+        <v>0.001331152117952804</v>
       </c>
       <c r="J21">
-        <v>0.2899903113833569</v>
+        <v>0.001449079629400479</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.25495216737674</v>
+        <v>4.352083</v>
       </c>
       <c r="N21">
-        <v>4.25495216737674</v>
+        <v>8.704166000000001</v>
       </c>
       <c r="O21">
-        <v>0.01391131790585118</v>
+        <v>0.0130399360269903</v>
       </c>
       <c r="P21">
-        <v>0.01391131790585118</v>
+        <v>0.008731242298328987</v>
       </c>
       <c r="Q21">
-        <v>523.7868230381407</v>
+        <v>2.921778175521667</v>
       </c>
       <c r="R21">
-        <v>523.7868230381407</v>
+        <v>17.53066905313</v>
       </c>
       <c r="S21">
-        <v>0.004034147411270651</v>
+        <v>1.735813846029721E-05</v>
       </c>
       <c r="T21">
-        <v>0.004034147411270651</v>
+        <v>1.265226535386836E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>123.130749</v>
+      </c>
+      <c r="H22">
+        <v>246.261498</v>
+      </c>
+      <c r="I22">
+        <v>0.2441429215932014</v>
+      </c>
+      <c r="J22">
+        <v>0.1771811198092638</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>196.8487906666667</v>
+      </c>
+      <c r="N22">
+        <v>590.546372</v>
+      </c>
+      <c r="O22">
+        <v>0.5898085209504824</v>
+      </c>
+      <c r="P22">
+        <v>0.5923834015035012</v>
+      </c>
+      <c r="Q22">
+        <v>24238.13903453088</v>
+      </c>
+      <c r="R22">
+        <v>145428.8342071853</v>
+      </c>
+      <c r="S22">
+        <v>0.1439975754854158</v>
+      </c>
+      <c r="T22">
+        <v>0.1049591544348111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>123.130749</v>
+      </c>
+      <c r="H23">
+        <v>246.261498</v>
+      </c>
+      <c r="I23">
+        <v>0.2441429215932014</v>
+      </c>
+      <c r="J23">
+        <v>0.1771811198092638</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.2899643333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.869893</v>
+      </c>
+      <c r="O23">
+        <v>0.0008688061226717315</v>
+      </c>
+      <c r="P23">
+        <v>0.0008725990010553907</v>
+      </c>
+      <c r="Q23">
+        <v>35.703525546619</v>
+      </c>
+      <c r="R23">
+        <v>214.221153279714</v>
+      </c>
+      <c r="S23">
+        <v>0.0002121128650871379</v>
+      </c>
+      <c r="T23">
+        <v>0.0001546080681514391</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>123.130749</v>
+      </c>
+      <c r="H24">
+        <v>246.261498</v>
+      </c>
+      <c r="I24">
+        <v>0.2441429215932014</v>
+      </c>
+      <c r="J24">
+        <v>0.1771811198092638</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>54.63182799999999</v>
+      </c>
+      <c r="N24">
+        <v>163.895484</v>
+      </c>
+      <c r="O24">
+        <v>0.1636907067621498</v>
+      </c>
+      <c r="P24">
+        <v>0.1644053183735123</v>
+      </c>
+      <c r="Q24">
+        <v>6726.857900879171</v>
+      </c>
+      <c r="R24">
+        <v>40361.14740527503</v>
+      </c>
+      <c r="S24">
+        <v>0.03996392738656727</v>
+      </c>
+      <c r="T24">
+        <v>0.02912951841201745</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>123.130749</v>
+      </c>
+      <c r="H25">
+        <v>246.261498</v>
+      </c>
+      <c r="I25">
+        <v>0.2441429215932014</v>
+      </c>
+      <c r="J25">
+        <v>0.1771811198092638</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>77.62766766666668</v>
+      </c>
+      <c r="N25">
+        <v>232.883003</v>
+      </c>
+      <c r="O25">
+        <v>0.2325920301377057</v>
+      </c>
+      <c r="P25">
+        <v>0.233607438823602</v>
+      </c>
+      <c r="Q25">
+        <v>9558.352862919752</v>
+      </c>
+      <c r="R25">
+        <v>57350.11717751851</v>
+      </c>
+      <c r="S25">
+        <v>0.05678569777711344</v>
+      </c>
+      <c r="T25">
+        <v>0.0413908276065399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>123.130749</v>
+      </c>
+      <c r="H26">
+        <v>246.261498</v>
+      </c>
+      <c r="I26">
+        <v>0.2441429215932014</v>
+      </c>
+      <c r="J26">
+        <v>0.1771811198092638</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.352083</v>
+      </c>
+      <c r="N26">
+        <v>8.704166000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.0130399360269903</v>
+      </c>
+      <c r="P26">
+        <v>0.008731242298328987</v>
+      </c>
+      <c r="Q26">
+        <v>535.875239500167</v>
+      </c>
+      <c r="R26">
+        <v>2143.500958000668</v>
+      </c>
+      <c r="S26">
+        <v>0.003183608079017855</v>
+      </c>
+      <c r="T26">
+        <v>0.00154701128774394</v>
       </c>
     </row>
   </sheetData>
